--- a/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/feature_ranking.xlsx
+++ b/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/feature_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aravind/Projects/IntrusionDetection/IntrusionDetection/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B5A5EA-EA57-A843-B719-08C0612F2B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522AE95E-92A8-3E4D-9388-8C80EE9988CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="7" xr2:uid="{1FC93D56-9702-734B-912C-EEC55B2F53A6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="9" xr2:uid="{1FC93D56-9702-734B-912C-EEC55B2F53A6}"/>
   </bookViews>
   <sheets>
     <sheet name="chi_2" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="mutual_info" sheetId="6" r:id="rId6"/>
     <sheet name="pearson" sheetId="7" r:id="rId7"/>
     <sheet name="su" sheetId="8" r:id="rId8"/>
+    <sheet name="passi_luuka" sheetId="9" r:id="rId9"/>
+    <sheet name="reliefF" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="53">
   <si>
     <t>Feature</t>
   </si>
@@ -195,13 +197,19 @@
   </si>
   <si>
     <t>Symmetric Uncertainty</t>
+  </si>
+  <si>
+    <t>PassiLuukaEntropy</t>
+  </si>
+  <si>
+    <t>ReliefF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,6 +238,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -239,7 +261,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -262,17 +284,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -291,9 +333,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -331,7 +373,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -437,7 +479,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -579,7 +621,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -589,354 +631,714 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C399FFA-8EC1-1445-ACF5-28BE4AD20813}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.76091588353349082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1.8690126542010639E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.530832695723241E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3.3253728824676237E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1.0578304156274221E-12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>4.338519386638828E-15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1.245162936239669E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>5.3415419818194433E-44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1.101615971678841E-56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>4.8093730228636453E-65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2.0881614066148278E-155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.169479010591342E-250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>5.8360582236623319E-275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E40CA-059A-EA4C-8630-EDCC5A817A10}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1246280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1246118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B4" s="6">
+        <v>1246056</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B5" s="6">
+        <v>1246030</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0.76091588353349082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.8690126542010639E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="6">
+        <v>1245950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1245626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1245530</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>1.530832695723241E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3.3253728824676237E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B9" s="6">
+        <v>1245108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1244440</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1.0578304156274221E-12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>4.338519386638828E-15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="6">
+        <v>1242972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1241760</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1.245162936239669E-17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>5.3415419818194433E-44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B13" s="6">
+        <v>1239828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>1.101615971678841E-56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B14" s="6">
+        <v>1239544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1237684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>4.8093730228636453E-65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>2.0881614066148278E-155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B16" s="6">
+        <v>1234340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1231366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1196430</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1182444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1181802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1161210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1143642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1107920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1054228</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>1.169479010591342E-250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>5.8360582236623319E-275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B25" s="6">
+        <v>1036340</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1030834</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
+        <v>970960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B28" s="6">
+        <v>947144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="6">
+        <v>944858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="6">
+        <v>811114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>727652</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>660328</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6">
+        <v>644822</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="6">
+        <v>635598</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="6">
+        <v>543380</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6">
+        <v>395886</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6">
+        <v>320656</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="6">
+        <v>318156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6">
+        <v>294024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="B40" s="6">
+        <v>203876</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="6">
+        <v>-100872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B42" s="6">
+        <v>-462454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
+      <c r="B43" s="6">
+        <v>-514984</v>
       </c>
     </row>
   </sheetData>
@@ -949,10 +1351,13 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1293,6 +1698,9 @@
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1309,6 +1717,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1663,11 +2074,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7414B8-294D-CA44-92EA-4D05826382FB}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -2027,6 +2441,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -2386,6 +2803,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -2745,6 +3165,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -3099,12 +3522,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB78F22-CF8D-D24E-8584-E087C636868C}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3455,4 +3879,367 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED826265-000D-0043-93C8-F644A0D3DBD0}">
+  <dimension ref="A1:B43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>92778.093232609943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>81964.382599040822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>78752.938807087543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>75702.780233131693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>73535.633503754289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>71002.869477041531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>64978.217059381299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>64908.631863934068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>64485.188957691818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11">
+        <v>61598.199240626323</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>61511.388594570963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>61338.501010128733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>61241.31001468686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>61233.656940920548</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>61089.545809503499</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>56392.800435032521</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>55511.355464092099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>54272.812186863674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>43813.239236474168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>41596.580320415269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>38894.030412951557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>33862.841075137578</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24">
+        <v>32883.168361079239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>28134.506598883891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26">
+        <v>9545.2801469127189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>8678.0521275247193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28">
+        <v>7186.3374569147281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>4347.2212744547342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>1815.403959649489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>875.98738588435344</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>814.62104916107808</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>569.47265830216907</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>503.9216699635424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>392.41457988576201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>338.73602507950642</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>99.072830065442758</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>93.347174418880414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>82.314049262293182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>77.198405563904487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41">
+        <v>35.363887132668253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>17.482543144358281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>8.7328772400613178E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/feature_ranking.xlsx
+++ b/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/feature_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aravind/Projects/IntrusionDetection/IntrusionDetection/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522AE95E-92A8-3E4D-9388-8C80EE9988CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C12FC6F-C271-6C4C-B465-2CD051F44B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="9" xr2:uid="{1FC93D56-9702-734B-912C-EEC55B2F53A6}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="9" xr2:uid="{1FC93D56-9702-734B-912C-EEC55B2F53A6}"/>
   </bookViews>
   <sheets>
     <sheet name="chi_2" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,10 @@
     <sheet name="passi_luuka" sheetId="9" r:id="rId9"/>
     <sheet name="reliefF" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">reliefF!$A$1:$B$42</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +39,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="52">
   <si>
     <t>Feature</t>
   </si>
@@ -173,9 +177,6 @@
   </si>
   <si>
     <t>dst_host_srv_rerror_rate</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>Fisher Score</t>
@@ -629,729 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C399FFA-8EC1-1445-ACF5-28BE4AD20813}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>0.76091588353349082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1.8690126542010639E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>1.530832695723241E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>3.3253728824676237E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1.0578304156274221E-12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>4.338519386638828E-15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>1.245162936239669E-17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>5.3415419818194433E-44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12">
-        <v>1.101615971678841E-56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13">
-        <v>4.8093730228636453E-65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>2.0881614066148278E-155</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1.169479010591342E-250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>5.8360582236623319E-275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E40CA-059A-EA4C-8630-EDCC5A817A10}">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1246280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1246118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1246056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1246030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1245950</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1245626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1245530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1245108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6">
-        <v>1244440</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1242972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1241760</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1239828</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1239544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1237684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1234340</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1231366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="6">
-        <v>1196430</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1182444</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="6">
-        <v>1181802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="6">
-        <v>1161210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1143642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1107920</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="6">
-        <v>1054228</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1036340</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="6">
-        <v>1030834</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="6">
-        <v>970960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="6">
-        <v>947144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="6">
-        <v>944858</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="6">
-        <v>811114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="6">
-        <v>727652</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6">
-        <v>660328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6">
-        <v>644822</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="6">
-        <v>635598</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="6">
-        <v>543380</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6">
-        <v>395886</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6">
-        <v>320656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="6">
-        <v>318156</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="6">
-        <v>294024</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="6">
-        <v>203876</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="6">
-        <v>-100872</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="6">
-        <v>-462454</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" s="6">
-        <v>-514984</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE3867-DB2D-6B4F-9401-8F58DDDF07E0}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,7 +646,716 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>3340257591.445745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>1746063122.170224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>7082565.3038920974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>6968826.6980192102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>6525616.721263824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>957425.80430376832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>82437.93955815387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>54653.932926071953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10">
+        <v>38543.822243196017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>37451.32465887905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>37364.83553764291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>37225.466492949847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>36259.73858447517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>32550.971032735411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>26894.753279502271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17">
+        <v>23448.208538734201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>20826.414096268771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>6997.3677176769688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>6923.3730132739875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>6866.9411173920234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22">
+        <v>6354.7558079789469</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>3282.67842401501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>3197.8426151034942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25">
+        <v>2694.210071542976</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>1723.2895695466259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>1245.395262157833</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1053.573988677671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>692.75675584926876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>487.67099257608629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31">
+        <v>409.03396567974772</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>192.53195015449941</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>190.55391013951851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34">
+        <v>117.30529554402619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>51.769368024482702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>14.135917752995169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>13.47133902938325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>6.5121994075437968</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39">
+        <v>2.9740089441797029</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>1.8171812299381001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0.87063051290427973</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E40CA-059A-EA4C-8630-EDCC5A817A10}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="6">
+        <v>-514984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-462454</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-100872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>203876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6">
+        <v>294024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
+        <v>318156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6">
+        <v>320656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6">
+        <v>395886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="6">
+        <v>543380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="6">
+        <v>635598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6">
+        <v>644822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6">
+        <v>660328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="6">
+        <v>727652</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6">
+        <v>944858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="6">
+        <v>947144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="6">
+        <v>970960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1030834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1036340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1054228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1107920</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1143642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6">
+        <v>1161210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6">
+        <v>1181802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1182444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <v>1196430</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6">
+        <v>1231366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="6">
+        <v>1234340</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="6">
+        <v>1237684</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1239544</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6">
+        <v>1239828</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="6">
+        <v>1241760</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6">
+        <v>1242972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="6">
+        <v>1244440</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1245108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6">
+        <v>1245530</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1245626</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1245950</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="6">
+        <v>1246030</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1246056</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1246118</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1246280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE3867-DB2D-6B4F-9401-8F58DDDF07E0}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1449,257 +1440,249 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>21221.681755204281</v>
+        <v>20619.816231549688</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>20619.816231549688</v>
+        <v>10829.24629114564</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>10829.24629114564</v>
+        <v>10431.585195731681</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>10431.585195731681</v>
+        <v>8651.2125716787941</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B16">
-        <v>8651.2125716787941</v>
+        <v>8645.8286985301529</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B17">
-        <v>8645.8286985301529</v>
+        <v>8643.4208421498006</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B18">
-        <v>8643.4208421498006</v>
+        <v>8582.7939084105456</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B19">
-        <v>8582.7939084105456</v>
+        <v>7898.0623005594789</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>7898.0623005594789</v>
+        <v>5450.899043851502</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>5450.899043851502</v>
+        <v>1821.240952660097</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>1821.240952660097</v>
+        <v>1169.402573816652</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>1169.402573816652</v>
+        <v>1085.8354358291799</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>1085.8354358291799</v>
+        <v>491.31267997336528</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>491.31267997336528</v>
+        <v>300.51690721671122</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>300.51690721671122</v>
+        <v>194.66064153460181</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>194.66064153460181</v>
+        <v>169.9052643519114</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>169.9052643519114</v>
+        <v>63.514162628776532</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>63.514162628776532</v>
+        <v>57.021595149429409</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>57.021595149429409</v>
+        <v>51.85943117431291</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>51.85943117431291</v>
+        <v>21.56917118096451</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>21.56917118096451</v>
+        <v>16.52471582567005</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>16.52471582567005</v>
+        <v>13.10329676688441</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>13.10329676688441</v>
+        <v>11.303290156621699</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>11.303290156621699</v>
+        <v>6.513725440441184</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>6.513725440441184</v>
+        <v>4.416868641722183</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>4.416868641722183</v>
+        <v>2.1357204873724829</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>2.1357204873724829</v>
+        <v>1.776476788639451</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>1.776476788639451</v>
+        <v>0.9785328242443746</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>0.9785328242443746</v>
+        <v>0.87062961877943068</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>0.87062961877943068</v>
+        <v>7.4317736645877264E-2</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>7.4317736645877264E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43">
         <v>0</v>
       </c>
     </row>
@@ -1710,10 +1693,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5E4A07-EE38-BB43-B12D-87808A705F84}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B43"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1726,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1859,151 +1842,151 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
-        <v>0.21640400000000001</v>
+        <v>0.20504700000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
-        <v>0.20504700000000001</v>
+        <v>0.18301500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
-        <v>0.18301500000000001</v>
+        <v>0.13636799999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>0.13636799999999999</v>
+        <v>9.2129000000000003E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
-        <v>9.2129000000000003E-2</v>
+        <v>8.7035000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
-        <v>8.7035000000000001E-2</v>
+        <v>7.6060000000000003E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>7.6060000000000003E-2</v>
+        <v>5.6703000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>5.6703000000000003E-2</v>
+        <v>5.203E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3">
-        <v>5.203E-2</v>
+        <v>5.0743999999999997E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3">
-        <v>5.0743999999999997E-2</v>
+        <v>3.3800999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>3.3800999999999998E-2</v>
+        <v>1.2272999999999999E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3">
-        <v>1.2272999999999999E-2</v>
+        <v>8.1370000000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>8.1370000000000001E-3</v>
+        <v>4.8630000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3">
-        <v>4.8630000000000001E-3</v>
+        <v>4.7359999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3">
-        <v>4.7359999999999998E-3</v>
+        <v>4.0930000000000003E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B33" s="3">
-        <v>4.0930000000000003E-3</v>
+        <v>8.3799999999999999E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B34" s="3">
-        <v>8.3799999999999999E-4</v>
+        <v>2.0100000000000001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>2.0100000000000001E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="3">
         <v>0</v>
@@ -2011,7 +1994,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -2019,7 +2002,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -2027,7 +2010,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -2035,7 +2018,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -2043,7 +2026,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -2051,17 +2034,9 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -2072,10 +2047,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7414B8-294D-CA44-92EA-4D05826382FB}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2088,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2221,209 +2196,201 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
-        <v>0.36229800000000001</v>
+        <v>0.37414599999999998</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
-        <v>0.37414599999999998</v>
+        <v>0.37771500000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
-        <v>0.37771500000000002</v>
+        <v>0.42138900000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>0.42138900000000001</v>
+        <v>0.43824800000000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
-        <v>0.43824800000000003</v>
+        <v>0.44419199999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
-        <v>0.44419199999999998</v>
+        <v>0.45799099999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>0.45799099999999998</v>
+        <v>0.46188699999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>0.46188699999999999</v>
+        <v>0.46272999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B26" s="3">
-        <v>0.46272999999999997</v>
+        <v>0.46370899999999998</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3">
-        <v>0.46370899999999998</v>
+        <v>0.47233199999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>0.47233199999999997</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3">
-        <v>0.49099999999999999</v>
+        <v>0.49262</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3">
-        <v>0.49262</v>
+        <v>0.49365199999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3">
-        <v>0.49365199999999998</v>
+        <v>0.49556</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="3">
-        <v>0.49556</v>
+        <v>0.49647200000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>0.49647200000000002</v>
+        <v>0.49684099999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3">
-        <v>0.49684099999999998</v>
+        <v>0.49699100000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>0.49699100000000002</v>
+        <v>0.49734699999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="3">
-        <v>0.49734699999999998</v>
+        <v>0.49740400000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="3">
-        <v>0.49740400000000001</v>
+        <v>0.497527</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>0.497527</v>
+        <v>0.49755300000000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="3">
-        <v>0.49755300000000002</v>
+        <v>0.497583</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40" s="3">
-        <v>0.497583</v>
+        <v>0.49760399999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41" s="3">
-        <v>0.49760399999999999</v>
+        <v>0.49760500000000002</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42" s="3">
-        <v>0.49760500000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3">
         <v>0.49760900000000002</v>
       </c>
     </row>
@@ -2434,10 +2401,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71474DF-04A1-6244-B57F-9434C10DA275}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B43"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2450,343 +2417,335 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>0.82239548097800075</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0.67156671958638281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0.64245901720328469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>0.5198317081526227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>0.51938708698344827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>0.51079408676060567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>0.47800961633870631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>0.43866851915636951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10">
+        <v>0.41174966299571558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>0.40650234517802969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.40476318507788389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>0.39872943398570909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>0.39329555300274921</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>0.38464733102203219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0.37985950823147729</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>0.27136625666330699</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>0.19851675350254891</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19">
+        <v>0.18952142670896041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>0.14213531482346631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>9.5336907721735531E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>8.8905984079463818E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>6.263987686993E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>5.7306703854352208E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25">
+        <v>5.3249264526923912E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>5.215270698786556E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <v>4.7268106755740107E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>1.1721829620049751E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29">
+        <v>9.6099407148925176E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <v>6.7254765761258772E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>4.0879753520635109E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32">
+        <v>2.164488453966551E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1.1684155404716461E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1.1382188790111101E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35">
+        <v>5.2957774736483998E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36">
+        <v>3.2406691503028551E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>1.3571555583224981E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38">
+        <v>1.132643814626411E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>3.8106825632433512E-5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>8.9044884422628812E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.99758100000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="B41">
+        <v>7.1724638091019699E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>0.99654699999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.99540200000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.99395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.99234699999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.98993799999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.98504400000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.98334200000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.968503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.96569300000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.93681700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.92632400000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.92178899999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.89797300000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.79149099999999994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.37256299999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3">
-        <v>0.32130300000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0.24817400000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.20515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0.18910299999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5.5079999999999997E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3">
-        <v>2.8929E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1.8967999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.3505E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="3">
-        <v>-0.16125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="3">
-        <v>-0.34075</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="3">
-        <v>-0.40316999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="3">
-        <v>-0.65971999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3">
-        <v>-0.87361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3">
-        <v>-0.89914000000000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="3">
-        <v>-1.1305099999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="3">
-        <v>-1.4886699999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="3">
-        <v>-2.0667599999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="3">
-        <v>-2.2264300000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="3">
-        <v>-2.42157</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3">
-        <v>-2.88306</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3">
-        <v>-2.89541</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B39" s="3">
-        <v>-4.0922599999999996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3">
-        <v>-4.2447999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="3">
-        <v>-4.5804200000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="3">
-        <v>-4.6186999999999996</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="3">
-        <v>-5.22471</v>
+      <c r="B42">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2796,10 +2755,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E5197-0B97-DC4E-962C-A331F96123C8}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B43"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2812,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2945,159 +2904,159 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B18" s="3">
-        <v>0.152726</v>
+        <v>0.14388200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
-        <v>0.14388200000000001</v>
+        <v>0.132519</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3">
-        <v>0.132519</v>
+        <v>0.100137</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>0.100137</v>
+        <v>6.4184000000000005E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
-        <v>6.4184000000000005E-2</v>
+        <v>6.1556E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B23" s="3">
-        <v>6.1556E-2</v>
+        <v>5.5292000000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>5.5292000000000001E-2</v>
+        <v>4.1006000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
-        <v>4.1006000000000001E-2</v>
+        <v>3.8439000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B26" s="3">
-        <v>3.8439000000000001E-2</v>
+        <v>3.6027000000000003E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B27" s="3">
-        <v>3.6027000000000003E-2</v>
+        <v>2.8128E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>2.8128E-2</v>
+        <v>1.1050000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3">
-        <v>1.1050000000000001E-2</v>
+        <v>8.038E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3">
-        <v>8.038E-3</v>
+        <v>6.607E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="3">
-        <v>6.607E-3</v>
+        <v>3.4749999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>3.4749999999999998E-3</v>
+        <v>7.8899999999999999E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3">
-        <v>7.8899999999999999E-4</v>
+        <v>4.46E-4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3">
-        <v>4.46E-4</v>
+        <v>4.35E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B35" s="3">
-        <v>4.35E-4</v>
+        <v>2.5399999999999999E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B36" s="3">
-        <v>2.5399999999999999E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -3105,7 +3064,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -3113,7 +3072,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3121,7 +3080,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -3129,7 +3088,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -3137,17 +3096,9 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3158,10 +3109,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF77A1A7-463F-1F49-A419-C0CF6C4717E8}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B43"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3174,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3259,257 +3210,249 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3">
-        <v>0.37970700000000002</v>
+        <v>-0.37504999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>-0.37504999999999999</v>
+        <v>0.28135700000000002</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>0.28135700000000002</v>
+        <v>-0.27654000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B15" s="3">
-        <v>-0.27654000000000001</v>
+        <v>-0.2535</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
-        <v>-0.2535</v>
+        <v>-0.25342999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
-        <v>-0.25342999999999999</v>
+        <v>-0.25340000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3">
-        <v>-0.25340000000000001</v>
+        <v>-0.25256000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B19" s="3">
-        <v>-0.25256000000000001</v>
+        <v>-0.2429</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B20" s="3">
-        <v>-0.2429</v>
+        <v>-0.20366000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="3">
-        <v>-0.20366000000000001</v>
+        <v>0.11938</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3">
-        <v>0.11938</v>
+        <v>-9.5909999999999995E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3">
-        <v>-9.5909999999999995E-2</v>
+        <v>-9.2450000000000004E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="3">
-        <v>-9.2450000000000004E-2</v>
+        <v>-6.2330000000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>-6.2330000000000003E-2</v>
+        <v>-4.8779999999999997E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>-4.8779999999999997E-2</v>
+        <v>3.9280000000000002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27" s="3">
-        <v>3.9280000000000002E-2</v>
+        <v>3.6700999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B28" s="3">
-        <v>3.6700999999999998E-2</v>
+        <v>2.2449E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3">
-        <v>2.2449E-2</v>
+        <v>2.1271000000000002E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3">
-        <v>2.1271000000000002E-2</v>
+        <v>2.0285999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B31" s="3">
-        <v>2.0285999999999998E-2</v>
+        <v>1.3084E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3">
-        <v>1.3084E-2</v>
+        <v>1.1453E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
-        <v>1.1453E-2</v>
+        <v>1.0198E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B34" s="3">
-        <v>1.0198E-2</v>
+        <v>9.4719999999999995E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" s="3">
-        <v>9.4719999999999995E-3</v>
+        <v>-7.1900000000000002E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B36" s="3">
-        <v>-7.1900000000000002E-3</v>
+        <v>-5.9199999999999999E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3">
-        <v>-5.9199999999999999E-3</v>
+        <v>-4.1200000000000004E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B38" s="3">
-        <v>-4.1200000000000004E-3</v>
+        <v>3.7550000000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B39" s="3">
-        <v>3.7550000000000001E-3</v>
+        <v>2.787E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40" s="3">
-        <v>2.787E-3</v>
+        <v>2.6289999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B41" s="3">
-        <v>2.6289999999999998E-3</v>
+        <v>-7.6999999999999996E-4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="B42" s="3">
-        <v>-7.6999999999999996E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3520,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB78F22-CF8D-D24E-8584-E087C636868C}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3537,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -3662,175 +3605,175 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B17" s="3">
-        <v>9.4052999999999998E-2</v>
+        <v>7.1851999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>7.1851999999999999E-2</v>
+        <v>7.0306999999999994E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B19" s="3">
-        <v>7.0306999999999994E-2</v>
+        <v>6.2959000000000001E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3">
-        <v>6.2959000000000001E-2</v>
+        <v>6.0434000000000002E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B21" s="3">
-        <v>6.0434000000000002E-2</v>
+        <v>5.8250999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>5.8250999999999997E-2</v>
+        <v>5.6926999999999998E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
-        <v>5.6926999999999998E-2</v>
+        <v>4.5256999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
-        <v>4.5256999999999999E-2</v>
+        <v>4.2935000000000001E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3">
-        <v>4.2935000000000001E-2</v>
+        <v>2.9475000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="B26" s="3">
-        <v>2.9475000000000001E-2</v>
+        <v>2.4518999999999999E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
-        <v>2.4518999999999999E-2</v>
+        <v>2.0681999999999999E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>2.0681999999999999E-2</v>
+        <v>1.1088000000000001E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" s="3">
-        <v>1.1088000000000001E-2</v>
+        <v>1.0607E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B30" s="3">
-        <v>1.0607E-2</v>
+        <v>4.4809999999999997E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3">
-        <v>4.4809999999999997E-3</v>
+        <v>2.8600000000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3">
-        <v>2.8600000000000001E-3</v>
+        <v>2.1519999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3">
-        <v>2.1519999999999998E-3</v>
+        <v>2.019E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B34" s="3">
-        <v>2.019E-3</v>
+        <v>1.768E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B35" s="3">
-        <v>1.768E-3</v>
+        <v>1.639E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>1.639E-3</v>
+        <v>1.176E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B37" s="3">
-        <v>1.176E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="3">
         <v>0</v>
@@ -3838,7 +3781,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B39" s="3">
         <v>0</v>
@@ -3846,7 +3789,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B40" s="3">
         <v>0</v>
@@ -3854,7 +3797,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B41" s="3">
         <v>0</v>
@@ -3862,17 +3805,9 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3883,10 +3818,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED826265-000D-0043-93C8-F644A0D3DBD0}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B43"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3899,8 +3834,8 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>51</v>
+      <c r="B1" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -4065,177 +4000,169 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>38894.030412951557</v>
+        <v>33862.841075137578</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>33862.841075137578</v>
+        <v>32883.168361079239</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>32883.168361079239</v>
+        <v>28134.506598883891</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>28134.506598883891</v>
+        <v>9545.2801469127189</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>9545.2801469127189</v>
+        <v>8678.0521275247193</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>8678.0521275247193</v>
+        <v>7186.3374569147281</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>7186.3374569147281</v>
+        <v>4347.2212744547342</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>4347.2212744547342</v>
+        <v>1815.403959649489</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>1815.403959649489</v>
+        <v>875.98738588435344</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>875.98738588435344</v>
+        <v>814.62104916107808</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>814.62104916107808</v>
+        <v>569.47265830216907</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>569.47265830216907</v>
+        <v>503.9216699635424</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>503.9216699635424</v>
+        <v>392.41457988576201</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>392.41457988576201</v>
+        <v>338.73602507950642</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>338.73602507950642</v>
+        <v>99.072830065442758</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>99.072830065442758</v>
+        <v>93.347174418880414</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>93.347174418880414</v>
+        <v>82.314049262293182</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>82.314049262293182</v>
+        <v>77.198405563904487</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>77.198405563904487</v>
+        <v>35.363887132668253</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>35.363887132668253</v>
+        <v>17.482543144358281</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>17.482543144358281</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43">
         <v>8.7328772400613178E-4</v>
       </c>
     </row>

--- a/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/feature_ranking.xlsx
+++ b/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/feature_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aravind/Projects/IntrusionDetection/IntrusionDetection/NSL KDD/FeatureSelectionBinary/feature_ranking/feature_ranking_plot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C12FC6F-C271-6C4C-B465-2CD051F44B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D2FF90-6E66-F74F-99B3-5BA7855086B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="9" xr2:uid="{1FC93D56-9702-734B-912C-EEC55B2F53A6}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="9" xr2:uid="{1FC93D56-9702-734B-912C-EEC55B2F53A6}"/>
   </bookViews>
   <sheets>
     <sheet name="chi_2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="reliefF" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">reliefF!$A$1:$B$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">reliefF!$B$1:$C$42</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="53">
   <si>
     <t>Feature</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>ReliefF</t>
+  </si>
+  <si>
+    <t>No.</t>
   </si>
 </sst>
 </file>
@@ -630,3543 +633,4833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C399FFA-8EC1-1445-ACF5-28BE4AD20813}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3340257591.445745</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>1746063122.170224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>7082565.3038920974</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>6968826.6980192102</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>6525616.721263824</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>957425.80430376832</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>82437.93955815387</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>54653.932926071953</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>38543.822243196017</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>27</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>37451.32465887905</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>37364.83553764291</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>37225.466492949847</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>36259.73858447517</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>32550.971032735411</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>26894.753279502271</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>23448.208538734201</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>20826.414096268771</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>6997.3677176769688</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>6923.3730132739875</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>6866.9411173920234</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>6354.7558079789469</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>3282.67842401501</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>36</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3197.8426151034942</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>31</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2694.210071542976</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>17</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1723.2895695466259</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1245.395262157833</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>10</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1053.573988677671</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>692.75675584926876</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>487.67099257608629</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>409.03396567974772</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>192.53195015449941</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>190.55391013951851</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>9</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>117.30529554402619</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>8</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>51.769368024482702</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>25</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>14.135917752995169</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>13.47133902938325</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>6.5121994075437968</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2.9740089441797029</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>1.8171812299381001</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.87063051290427973</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560E40CA-059A-EA4C-8630-EDCC5A817A10}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="6">
+      <c r="C2" s="6">
         <v>-514984</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6">
+      <c r="C3" s="6">
         <v>-462454</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6">
+      <c r="C4" s="6">
         <v>-100872</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="C5" s="6">
         <v>203876</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="6">
+      <c r="C6" s="6">
         <v>294024</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6">
+      <c r="C7" s="6">
         <v>318156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="6">
+      <c r="C8" s="6">
         <v>320656</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6">
+      <c r="C9" s="6">
         <v>395886</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="6">
+      <c r="C10" s="6">
         <v>543380</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6">
+      <c r="C11" s="6">
         <v>635598</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6">
+      <c r="C12" s="6">
         <v>644822</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6">
+      <c r="C13" s="6">
         <v>660328</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6">
+      <c r="C14" s="6">
         <v>727652</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6">
+      <c r="C15" s="6">
         <v>944858</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="6">
+      <c r="C16" s="6">
         <v>947144</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="6">
+      <c r="C17" s="6">
         <v>970960</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="6">
         <v>1030834</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="6">
+      <c r="C19" s="6">
         <v>1036340</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="6">
+      <c r="C20" s="6">
         <v>1054228</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="6">
+      <c r="C21" s="6">
         <v>1107920</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="6">
+      <c r="C22" s="6">
         <v>1143642</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="6">
+      <c r="C23" s="6">
         <v>1161210</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="6">
+      <c r="C24" s="6">
         <v>1181802</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="6">
+      <c r="C25" s="6">
         <v>1182444</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="C26" s="6">
         <v>1196430</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="6">
+      <c r="C27" s="6">
         <v>1231366</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="6">
+      <c r="C28" s="6">
         <v>1234340</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="6">
+      <c r="C29" s="6">
         <v>1237684</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="6">
+      <c r="C30" s="6">
         <v>1239544</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="6">
+      <c r="C31" s="6">
         <v>1239828</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="6">
+      <c r="C32" s="6">
         <v>1241760</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="6">
+      <c r="C33" s="6">
         <v>1242972</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="6">
+      <c r="C34" s="6">
         <v>1244440</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="6">
+      <c r="C35" s="6">
         <v>1245108</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="6">
+      <c r="C36" s="6">
         <v>1245530</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="6">
+      <c r="C37" s="6">
         <v>1245626</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6">
+      <c r="C38" s="6">
         <v>1245950</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="6">
+      <c r="C39" s="6">
         <v>1246030</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="6">
+      <c r="C40" s="6">
         <v>1246056</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="6">
+      <c r="C41" s="6">
         <v>1246118</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="6">
+      <c r="C42" s="6">
         <v>1246280</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DCE3867-DB2D-6B4F-9401-8F58DDDF07E0}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>163863.93340375289</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>137605.55004665651</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>116922.7680044633</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>114591.3023969112</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>94644.568964916747</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>93068.503988058583</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>92480.069219905199</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>91323.273041885113</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>90734.329146784876</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>62688.481867563853</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>20619.816231549688</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>10829.24629114564</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>10431.585195731681</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>8651.2125716787941</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>8645.8286985301529</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>8643.4208421498006</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>8582.7939084105456</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>7898.0623005594789</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>5450.899043851502</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1821.240952660097</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>1169.402573816652</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1085.8354358291799</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>491.31267997336528</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>300.51690721671122</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>194.66064153460181</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>169.9052643519114</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>63.514162628776532</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>10</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>57.021595149429409</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>51.85943117431291</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>21.56917118096451</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>16.52471582567005</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>13.10329676688441</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>11.303290156621699</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>6.513725440441184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>4.416868641722183</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>21</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2.1357204873724829</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1.776476788639451</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>4</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.9785328242443746</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>3</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.87062961877943068</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>25</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>7.4317736645877264E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5E4A07-EE38-BB43-B12D-87808A705F84}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>0.79446899999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.65840900000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>0.618641</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>0.51690400000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>0.51586900000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>0.50687099999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>0.471499</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>0.43796600000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>0.41137899999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>0.400503</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>0.398949</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>0.39566299999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>0.39038400000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>0.37662800000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>0.37478299999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>0.26295200000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>0.20504700000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>0.18301500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>0.13636799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>9.2129000000000003E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>8.7035000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>7.6060000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>5.6703000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>5.203E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>5.0743999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>3.3800999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>1.2272999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>8.1370000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>4.8630000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>4.7359999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>4.0930000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>8.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7414B8-294D-CA44-92EA-4D05826382FB}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>6.3043000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.129299</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>0.149816</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>0.19877600000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>0.20449200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>0.20558100000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>0.220301</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>0.23253499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>0.24865699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>0.260573</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>0.26517299999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>0.27025100000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>0.27299800000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>0.27861399999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>0.283308</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>0.34898299999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>0.37414599999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>0.37771500000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>0.42138900000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>0.43824800000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>0.44419199999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>0.45799099999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>0.46188699999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>0.46272999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>0.46370899999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>0.47233199999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>0.49099999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>0.49262</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>0.49365199999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>0.49556</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>0.49647200000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>0.49684099999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>0.49699100000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>0.49734699999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>0.49740400000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>0.497527</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>0.49755300000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>0.497583</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>0.49760399999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>0.49760500000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>0.49760900000000002</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71474DF-04A1-6244-B57F-9434C10DA275}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.82239548097800075</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.67156671958638281</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.64245901720328469</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.5198317081526227</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.51938708698344827</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.51079408676060567</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.47800961633870631</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.43866851915636951</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.41174966299571558</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.40650234517802969</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.40476318507788389</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.39872943398570909</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.39329555300274921</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.38464733102203219</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.37985950823147729</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.27136625666330699</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.19851675350254891</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.18952142670896041</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.14213531482346631</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>9.5336907721735531E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>8.8905984079463818E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>6.263987686993E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>5.7306703854352208E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>5.3249264526923912E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>29</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>5.215270698786556E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>4.7268106755740107E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>1.1721829620049751E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>9.6099407148925176E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>14</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>6.7254765761258772E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>4.0879753520635109E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2.164488453966551E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>1.1684155404716461E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>1.1382188790111101E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>9</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>5.2957774736483998E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>3.2406691503028551E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>7</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1.3571555583224981E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>6</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1.132643814626411E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>5</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>3.8106825632433512E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>4</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>8.9044884422628812E-6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>7.1724638091019699E-6</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5E5197-0B97-DC4E-962C-A331F96123C8}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>0.56601100000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.46899400000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>0.44093199999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>0.37168000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>0.36762099999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>0.36060900000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>0.33709899999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>0.31237599999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>0.291848</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>0.28708600000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>0.28466999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>0.28112500000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>0.27815099999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>0.26867999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>0.26391500000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>0.18987699999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>0.14388200000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>0.132519</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>0.100137</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>6.4184000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>6.1556E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>5.5292000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>4.1006000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>3.8439000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>3.6027000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>2.8128E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>1.1050000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>8.038E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>6.607E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>3.4749999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>7.8899999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>4.46E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>4.35E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF77A1A7-463F-1F49-A419-C0CF6C4717E8}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>0.75191200000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.72254600000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>0.69381300000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>0.69018100000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>-0.65498000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>-0.65183999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>-0.65064999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>-0.64829000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>0.64707099999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>-0.57643999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>-0.37504999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>0.28135700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>-0.27654000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>-0.2535</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>-0.25342999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>-0.25340000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>-0.25256000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>-0.2429</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>-0.20366000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>0.11938</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>-9.5909999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>-9.2450000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>-6.2330000000000003E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>-4.8779999999999997E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>3.9280000000000002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>3.6700999999999998E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>2.2449E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>2.1271000000000002E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>2.0285999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>1.3084E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>1.1453E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>1.0198E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>9.4719999999999995E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>-7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>-5.9199999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>-4.1200000000000004E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>3.7550000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>2.787E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>2.6289999999999998E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>-7.6999999999999996E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB78F22-CF8D-D24E-8584-E087C636868C}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>0.29701</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>0.29194500000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>0.26097799999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>0.24970300000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>0.24884200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>0.22284399999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>0.21800800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>0.191882</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>0.19130900000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>0.15856999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>0.127083</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>0.124879</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>0.12305199999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>0.119944</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>0.102052</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>7.1851999999999999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>7.0306999999999994E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>6.2959000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>6.0434000000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>5.8250999999999997E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>5.6926999999999998E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>4.5256999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>4.2935000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>2.9475000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>2.4518999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>2.0681999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>1.1088000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>1.0607E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>4.4809999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>2.8600000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>2.1519999999999998E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>2.019E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="3">
+      <c r="C34" s="3">
         <v>1.768E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3">
+      <c r="C35" s="3">
         <v>1.639E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="3">
+      <c r="C36" s="3">
         <v>1.176E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B37" s="3">
+      <c r="C37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="3">
+      <c r="C38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="3">
+      <c r="C39" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="3">
+      <c r="C40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="3">
+      <c r="C41" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="3">
+      <c r="C42" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED826265-000D-0043-93C8-F644A0D3DBD0}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>92778.093232609943</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>81964.382599040822</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>78752.938807087543</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>75702.780233131693</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>73535.633503754289</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>71002.869477041531</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>64978.217059381299</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>64908.631863934068</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>64485.188957691818</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>61598.199240626323</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>61511.388594570963</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>61338.501010128733</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>61241.31001468686</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>61233.656940920548</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>61089.545809503499</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>56392.800435032521</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>55511.355464092099</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>54272.812186863674</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>43813.239236474168</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>36</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>41596.580320415269</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>33862.841075137578</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>32883.168361079239</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>28134.506598883891</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>9545.2801469127189</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>8678.0521275247193</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>16</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>7186.3374569147281</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>4347.2212744547342</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>8</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>1815.403959649489</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>875.98738588435344</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>814.62104916107808</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>569.47265830216907</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>6</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>503.9216699635424</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>7</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>392.41457988576201</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>338.73602507950642</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>13</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>99.072830065442758</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>93.347174418880414</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>4</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>82.314049262293182</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>77.198405563904487</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>21</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>35.363887132668253</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>3</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>17.482543144358281</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>2</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>8.7328772400613178E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Confidential – Oracle Internal</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>